--- a/WalletBalance.xlsx
+++ b/WalletBalance.xlsx
@@ -442,7 +442,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/WalletBalance.xlsx
+++ b/WalletBalance.xlsx
@@ -442,7 +442,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>144</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
